--- a/Draco Dataset/Draco Taxonomy.xlsx
+++ b/Draco Dataset/Draco Taxonomy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ideapad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ideapad\Desktop\Repositório Final Tese\Draco Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE4A6C8-7956-4B25-BBBC-FC613B400E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B1BD18-A660-4873-B3E6-EAB249F5F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15E17AE9-48B3-44DC-A468-29985B87FA8E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{15E17AE9-48B3-44DC-A468-29985B87FA8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>Relationship</t>
   </si>
   <si>
-    <t>(R1) Categorical / Value</t>
-  </si>
-  <si>
     <t>Sales [Sum] / Linear Time</t>
   </si>
   <si>
@@ -1094,45 +1091,6 @@
     <t>Relate</t>
   </si>
   <si>
-    <t>(D1) Value</t>
-  </si>
-  <si>
-    <t>(D1) Categorical</t>
-  </si>
-  <si>
-    <t>(D2) Categorical / Value</t>
-  </si>
-  <si>
-    <t>(D3) Value / Value</t>
-  </si>
-  <si>
-    <t>(D4) Categorical / Value / Value</t>
-  </si>
-  <si>
-    <t>(D5) Categorical / Categorical / Value</t>
-  </si>
-  <si>
-    <t>(R2) Value / Value</t>
-  </si>
-  <si>
-    <t>(R3) Categorical / Value / Value</t>
-  </si>
-  <si>
-    <t>(R4) Categorical / Categorical / Value</t>
-  </si>
-  <si>
-    <t>(C1) Categorical / Value</t>
-  </si>
-  <si>
-    <t>(C3) Categorical / Value / Value</t>
-  </si>
-  <si>
-    <t>(C4) Categorical / Categorical / Value</t>
-  </si>
-  <si>
-    <t>(C2) Value / Value</t>
-  </si>
-  <si>
     <t>Analytical Task</t>
   </si>
   <si>
@@ -2159,6 +2117,48 @@
       </rPr>
       <t>"</t>
     </r>
+  </si>
+  <si>
+    <t>(D1) Discrete</t>
+  </si>
+  <si>
+    <t>(R1) Discrete / Continuous</t>
+  </si>
+  <si>
+    <t>(R2) Continuous / Continuous</t>
+  </si>
+  <si>
+    <t>(R3) Discrete / Continuous / Continuous</t>
+  </si>
+  <si>
+    <t>(R4) Discrete / Discrete / Continuous</t>
+  </si>
+  <si>
+    <t>(D1) Continuous</t>
+  </si>
+  <si>
+    <t>(D2) Discrete / Continuous</t>
+  </si>
+  <si>
+    <t>(D3) Continuous / Continuous</t>
+  </si>
+  <si>
+    <t>(D4) Discrete / Continuous / Continuous</t>
+  </si>
+  <si>
+    <t>(D5) Discrete / Discrete / Continuous</t>
+  </si>
+  <si>
+    <t>(C1) Discrete / Continuous</t>
+  </si>
+  <si>
+    <t>(C2) Continuous / Continuous</t>
+  </si>
+  <si>
+    <t>(C3) Discrete / Continuous / Continuous</t>
+  </si>
+  <si>
+    <t>(C4) Discrete / Discrete / Continuous</t>
   </si>
 </sst>
 </file>
@@ -2614,7 +2614,7 @@
   <dimension ref="B3:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2633,189 +2633,189 @@
   <sheetData>
     <row r="3" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
       <c r="G3" s="13" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>583</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>584</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
       <c r="C7" t="s">
-        <v>255</v>
+        <v>585</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>8</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
       <c r="C8" t="s">
-        <v>256</v>
+        <v>586</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="10" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>248</v>
+        <v>587</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" t="s">
-        <v>249</v>
+        <v>582</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" t="s">
-        <v>250</v>
+        <v>588</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" t="s">
-        <v>251</v>
+        <v>589</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" t="s">
-        <v>252</v>
+        <v>590</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" t="s">
-        <v>253</v>
+        <v>591</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I15" s="1"/>
     </row>
@@ -2827,65 +2827,65 @@
     </row>
     <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>257</v>
+        <v>592</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" t="s">
-        <v>260</v>
+        <v>593</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" t="s">
-        <v>258</v>
+        <v>594</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" t="s">
-        <v>259</v>
+        <v>595</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I20" s="1"/>
     </row>
@@ -2977,808 +2977,808 @@
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4" s="16"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="K5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="C26" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="C27" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="1" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -3786,16 +3786,16 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.25">
@@ -3805,13 +3805,13 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="1" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.25">
@@ -3822,38 +3822,38 @@
       <c r="H34" s="2"/>
       <c r="I34" s="1"/>
       <c r="J34" s="2" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="E35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.25">
@@ -3861,7 +3861,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="2" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="K38" s="2"/>
     </row>
@@ -3874,7 +3874,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="2" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="K39" s="2"/>
     </row>
@@ -3887,7 +3887,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="1"/>
       <c r="J40" s="2" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="K40" s="2"/>
     </row>
@@ -4108,7 +4108,7 @@
   <sheetData>
     <row r="1" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
@@ -4143,20 +4143,20 @@
     </row>
     <row r="4" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -4164,597 +4164,597 @@
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="F5" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E33" s="2" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F34" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F35" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F36" s="2" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F37" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F38" s="2" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F39" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F40" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F41" s="2" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F42" s="2" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
     </row>
     <row r="43" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H43" s="2" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -4786,7 +4786,7 @@
   <sheetData>
     <row r="1" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
@@ -4812,796 +4812,796 @@
     </row>
     <row r="4" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E48" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51" s="2" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E53" s="2" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E54" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E55" s="2" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E56" s="2" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E57" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E58" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E59" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E60" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E61" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E62" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E63" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E64" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E65" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E66" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E67" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E68" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E69" s="2" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
     </row>
     <row r="70" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E70" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E71" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E72" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E73" s="2" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -5615,15 +5615,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001E7B18D6276B0C438968DF860AE9E3C9" ma:contentTypeVersion="0" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="f55b51b3687050b1f2c0e7700c63760f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3af002d8d66cb08943f5f64baebb834">
     <xsd:element name="properties">
@@ -5737,6 +5728,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5744,14 +5744,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7482098-A3D1-4C0B-98C3-386A88C37EF7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DF53FC3-9261-49DD-B4FA-FFDEE8035CCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5763,6 +5755,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7482098-A3D1-4C0B-98C3-386A88C37EF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
